--- a/消防/03_报告/三屏(1.0)第一轮测试报告.xlsx
+++ b/消防/03_报告/三屏(1.0)第一轮测试报告.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\物联网\老三屏第一轮测试结果\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\物联网\githup\消防\03_报告\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4185" yWindow="0" windowWidth="19095" windowHeight="8340"/>
+    <workbookView xWindow="5580" yWindow="0" windowWidth="19095" windowHeight="8340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="测试总结" sheetId="2" r:id="rId1"/>
@@ -100,10 +100,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.本次计划投入3个人（张元剑8年经验、何翠翠7年经验、李昌杰4年经验）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>张元剑：负责总体协调执行，参与功能和非功能测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -573,6 +569,10 @@
   <si>
     <t>共提出44条bug，16条未实现需求。第一轮主要是测试老版本功能，除登录、设备异常表、设备详情、视频监控列表、报警记录、视频全屏、视频上一页下一页、火警预案等功能测试不通过外，其他屏主体功能都已实现。验证无法通过的功能主要体现在主体功能未实现，以及有明显影响功能问题。测试过程中，app巡检维保功能、火警数据录入无法使用是阻碍测试的最大问题。详细见功能矩阵。
 目前第一轮已经完成测试，但是开发还未进行缺陷修复或缺陷修复了，但是还未发布版本，导致无法开展第二轮测试，请研发同事，抓紧进行缺陷修复，提交版本测试。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.本次计划投入3个人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -772,22 +772,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1283,7 +1283,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1391,6 +1393,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3771,9 +3774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -3785,7 +3789,7 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C2" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="19"/>
@@ -3797,10 +3801,10 @@
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B3" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
@@ -3961,7 +3965,7 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B18" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -3999,7 +4003,7 @@
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
       <c r="E21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F21">
         <v>14</v>
@@ -4014,7 +4018,7 @@
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F22">
         <v>29</v>
@@ -4103,7 +4107,7 @@
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B30" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -4259,7 +4263,7 @@
     </row>
     <row r="44" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.15">
@@ -4274,7 +4278,7 @@
     <row r="46" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B46" s="16"/>
       <c r="D46" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E46" s="11">
         <v>1</v>
@@ -4283,7 +4287,7 @@
     <row r="47" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B47" s="16"/>
       <c r="D47" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E47" s="11">
         <v>3</v>
@@ -4292,7 +4296,7 @@
     <row r="48" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B48" s="16"/>
       <c r="D48" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E48" s="11">
         <v>3</v>
@@ -4301,7 +4305,7 @@
     <row r="49" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B49" s="16"/>
       <c r="D49" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E49" s="11">
         <v>5</v>
@@ -4310,7 +4314,7 @@
     <row r="50" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B50" s="16"/>
       <c r="D50" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E50" s="11">
         <v>9</v>
@@ -4319,7 +4323,7 @@
     <row r="51" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B51" s="16"/>
       <c r="D51" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E51" s="11">
         <v>9</v>
@@ -4328,7 +4332,7 @@
     <row r="52" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B52" s="16"/>
       <c r="D52" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E52" s="11">
         <v>1</v>
@@ -4337,7 +4341,7 @@
     <row r="53" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B53" s="16"/>
       <c r="D53" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E53" s="11">
         <v>0</v>
@@ -4346,7 +4350,7 @@
     <row r="54" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B54" s="16"/>
       <c r="D54" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E54" s="11">
         <v>1</v>
@@ -4355,7 +4359,7 @@
     <row r="55" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="16"/>
       <c r="D55" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E55" s="11">
         <v>5</v>
@@ -4385,11 +4389,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:L79"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B77" sqref="B77:B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4406,60 +4411,60 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="21" t="s">
+      <c r="B2" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24" t="s">
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="24" t="s">
+      <c r="L2" s="23" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
       <c r="F3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -4467,7 +4472,7 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G4" s="1">
         <v>2</v>
@@ -4476,23 +4481,23 @@
         <v>3</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B5" s="24"/>
-      <c r="C5" s="21"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="22"/>
       <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
@@ -4504,22 +4509,22 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B6" s="24"/>
-      <c r="C6" s="21" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="21" t="s">
-        <v>23</v>
+      <c r="D6" s="22" t="s">
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -4531,18 +4536,18 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B7" s="24"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
       <c r="E7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
@@ -4554,18 +4559,18 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B8" s="24"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
       <c r="E8" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -4577,18 +4582,18 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B9" s="24"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G9" s="2">
         <v>0</v>
@@ -4600,20 +4605,20 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B10" s="24"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21" t="s">
-        <v>28</v>
+      <c r="B10" s="23"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22" t="s">
+        <v>27</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G10" s="2">
         <v>0</v>
@@ -4625,18 +4630,18 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B11" s="24"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
       <c r="E11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -4645,23 +4650,23 @@
         <v>0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B12" s="24"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G12" s="2">
         <v>2</v>
@@ -4670,23 +4675,23 @@
         <v>0</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B13" s="24"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
       <c r="E13" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G13" s="2">
         <v>0</v>
@@ -4698,18 +4703,18 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B14" s="24"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
       <c r="E14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G14" s="2">
         <v>0</v>
@@ -4721,20 +4726,20 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B15" s="24"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21" t="s">
-        <v>29</v>
+      <c r="B15" s="23"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G15" s="2">
         <v>2</v>
@@ -4743,23 +4748,23 @@
         <v>0</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B16" s="24"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
       <c r="E16" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -4768,23 +4773,23 @@
         <v>0</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B17" s="24"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
       <c r="E17" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -4796,18 +4801,18 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B18" s="24"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
       <c r="E18" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G18" s="2">
         <v>0</v>
@@ -4819,18 +4824,18 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B19" s="24"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
       <c r="E19" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G19" s="2">
         <v>0</v>
@@ -4842,20 +4847,20 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B20" s="24"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21" t="s">
-        <v>31</v>
+      <c r="B20" s="23"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G20" s="2">
         <v>0</v>
@@ -4867,18 +4872,18 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B21" s="24"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
       <c r="E21" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G21" s="2">
         <v>0</v>
@@ -4890,18 +4895,18 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B22" s="24"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
       <c r="E22" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G22" s="2">
         <v>0</v>
@@ -4913,18 +4918,18 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B23" s="24"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
       <c r="E23" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
@@ -4933,23 +4938,23 @@
         <v>0</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B24" s="24"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
       <c r="E24" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G24" s="2">
         <v>0</v>
@@ -4961,18 +4966,18 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B25" s="24"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
       <c r="E25" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G25" s="2">
         <v>0</v>
@@ -4984,18 +4989,18 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="24"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
       <c r="E26" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G26" s="2">
         <v>0</v>
@@ -5007,18 +5012,18 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B27" s="24"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
       <c r="E27" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G27" s="2">
         <v>3</v>
@@ -5027,25 +5032,25 @@
         <v>0</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B28" s="24"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21" t="s">
-        <v>38</v>
+      <c r="B28" s="23"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22" t="s">
+        <v>37</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G28" s="2">
         <v>0</v>
@@ -5057,18 +5062,18 @@
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B29" s="24"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
       <c r="E29" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
@@ -5077,23 +5082,23 @@
         <v>0</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B30" s="24"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
       <c r="E30" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G30" s="2">
         <v>0</v>
@@ -5105,18 +5110,18 @@
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B31" s="24"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
       <c r="E31" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G31" s="2">
         <v>0</v>
@@ -5128,18 +5133,18 @@
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B32" s="24"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
       <c r="E32" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G32" s="2">
         <v>0</v>
@@ -5151,18 +5156,18 @@
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B33" s="24"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
       <c r="E33" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G33" s="2">
         <v>0</v>
@@ -5174,18 +5179,18 @@
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B34" s="24"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
       <c r="E34" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G34" s="2">
         <v>1</v>
@@ -5194,23 +5199,23 @@
         <v>0</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B35" s="24"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
       <c r="E35" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G35" s="2">
         <v>0</v>
@@ -5222,18 +5227,18 @@
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B36" s="24"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
       <c r="E36" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G36" s="2">
         <v>3</v>
@@ -5242,25 +5247,25 @@
         <v>0</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B37" s="24"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21" t="s">
-        <v>45</v>
+      <c r="B37" s="23"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22" t="s">
+        <v>44</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G37" s="2">
         <v>0</v>
@@ -5272,18 +5277,18 @@
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B38" s="24"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
       <c r="E38" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G38" s="2">
         <v>1</v>
@@ -5292,23 +5297,23 @@
         <v>1</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B39" s="24"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
       <c r="E39" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G39" s="2">
         <v>3</v>
@@ -5317,23 +5322,23 @@
         <v>0</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B40" s="24"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
       <c r="E40" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G40" s="2">
         <v>0</v>
@@ -5345,18 +5350,18 @@
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B41" s="24"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
       <c r="E41" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G41" s="2">
         <v>2</v>
@@ -5365,23 +5370,23 @@
         <v>0</v>
       </c>
       <c r="I41" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B42" s="24"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
       <c r="E42" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G42" s="2">
         <v>0</v>
@@ -5393,18 +5398,18 @@
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B43" s="24"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
       <c r="E43" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G43" s="2">
         <v>1</v>
@@ -5413,23 +5418,23 @@
         <v>0</v>
       </c>
       <c r="I43" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B44" s="24"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
       <c r="E44" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G44" s="2">
         <v>0</v>
@@ -5441,22 +5446,22 @@
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B45" s="24"/>
-      <c r="C45" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="D45" s="22" t="s">
-        <v>51</v>
+      <c r="B45" s="23"/>
+      <c r="C45" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>50</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G45" s="2">
         <v>0</v>
@@ -5468,18 +5473,18 @@
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B46" s="24"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="26"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="25"/>
       <c r="E46" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G46" s="2">
         <v>0</v>
@@ -5491,18 +5496,18 @@
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B47" s="24"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="26"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="25"/>
       <c r="E47" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G47" s="2">
         <v>0</v>
@@ -5514,18 +5519,18 @@
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B48" s="24"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="23"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="26"/>
       <c r="E48" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G48" s="2">
         <v>0</v>
@@ -5537,20 +5542,20 @@
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B49" s="24"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="22" t="s">
+      <c r="B49" s="23"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F49" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G49" s="2">
         <v>0</v>
@@ -5562,18 +5567,18 @@
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B50" s="24"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="23"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="26"/>
       <c r="E50" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G50" s="2">
         <v>0</v>
@@ -5585,20 +5590,20 @@
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B51" s="24"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="22" t="s">
-        <v>58</v>
+      <c r="B51" s="23"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="24" t="s">
+        <v>57</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G51" s="2">
         <v>0</v>
@@ -5610,18 +5615,18 @@
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B52" s="24"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="26"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="25"/>
       <c r="E52" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F52" s="12" t="s">
         <v>93</v>
-      </c>
-      <c r="F52" s="12" t="s">
-        <v>94</v>
       </c>
       <c r="G52" s="2">
         <v>1</v>
@@ -5630,23 +5635,23 @@
         <v>0</v>
       </c>
       <c r="I52" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
       <c r="L52" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B53" s="24"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="26"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="25"/>
       <c r="E53" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G53" s="2">
         <v>0</v>
@@ -5658,18 +5663,18 @@
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B54" s="24"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="26"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="25"/>
       <c r="E54" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G54" s="2">
         <v>0</v>
@@ -5681,18 +5686,18 @@
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
       <c r="L54" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B55" s="24"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="23"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="26"/>
       <c r="E55" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G55" s="2">
         <v>0</v>
@@ -5704,20 +5709,20 @@
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
       <c r="L55" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B56" s="24"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="22" t="s">
-        <v>62</v>
+      <c r="B56" s="23"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="24" t="s">
+        <v>61</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G56" s="2">
         <v>0</v>
@@ -5729,18 +5734,18 @@
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
       <c r="L56" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B57" s="24"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="26"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="25"/>
       <c r="E57" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G57" s="2">
         <v>0</v>
@@ -5752,18 +5757,18 @@
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
       <c r="L57" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B58" s="24"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="26"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="25"/>
       <c r="E58" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G58" s="2">
         <v>0</v>
@@ -5775,18 +5780,18 @@
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
       <c r="L58" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B59" s="24"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="26"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="25"/>
       <c r="E59" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G59" s="2">
         <v>0</v>
@@ -5798,18 +5803,18 @@
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
       <c r="L59" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B60" s="24"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="23"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="26"/>
       <c r="E60" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G60" s="2">
         <v>0</v>
@@ -5821,20 +5826,20 @@
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
       <c r="L60" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B61" s="24"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="22" t="s">
+      <c r="B61" s="23"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F61" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G61" s="2">
         <v>1</v>
@@ -5843,23 +5848,23 @@
         <v>1</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
       <c r="L61" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B62" s="24"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="26"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="25"/>
       <c r="E62" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G62" s="2">
         <v>2</v>
@@ -5868,23 +5873,23 @@
         <v>0</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
       <c r="L62" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B63" s="24"/>
-      <c r="C63" s="21"/>
-      <c r="D63" s="26"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="25"/>
       <c r="E63" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G63" s="2">
         <v>0</v>
@@ -5896,18 +5901,18 @@
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
       <c r="L63" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B64" s="24"/>
-      <c r="C64" s="21"/>
-      <c r="D64" s="26"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="25"/>
       <c r="E64" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G64" s="2">
         <v>0</v>
@@ -5919,18 +5924,18 @@
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
       <c r="L64" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B65" s="24"/>
-      <c r="C65" s="21"/>
-      <c r="D65" s="26"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="25"/>
       <c r="E65" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G65" s="2">
         <v>0</v>
@@ -5942,18 +5947,18 @@
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
       <c r="L65" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B66" s="24"/>
-      <c r="C66" s="21"/>
-      <c r="D66" s="26"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="25"/>
       <c r="E66" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G66" s="2">
         <v>0</v>
@@ -5965,18 +5970,18 @@
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
       <c r="L66" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B67" s="24"/>
-      <c r="C67" s="21"/>
-      <c r="D67" s="26"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="25"/>
       <c r="E67" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G67" s="2">
         <v>1</v>
@@ -5985,23 +5990,23 @@
         <v>0</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
       <c r="L67" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B68" s="24"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="26"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="25"/>
       <c r="E68" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G68" s="2">
         <v>0</v>
@@ -6013,18 +6018,18 @@
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
       <c r="L68" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B69" s="24"/>
-      <c r="C69" s="21"/>
-      <c r="D69" s="26"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="25"/>
       <c r="E69" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G69" s="2">
         <v>0</v>
@@ -6036,18 +6041,18 @@
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
       <c r="L69" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B70" s="24"/>
-      <c r="C70" s="21"/>
-      <c r="D70" s="23"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="26"/>
       <c r="E70" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G70" s="2">
         <v>0</v>
@@ -6059,20 +6064,20 @@
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
       <c r="L70" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B71" s="24"/>
-      <c r="C71" s="21"/>
-      <c r="D71" s="22" t="s">
+      <c r="B71" s="23"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E71" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F71" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G71" s="2">
         <v>0</v>
@@ -6084,18 +6089,18 @@
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
       <c r="L71" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B72" s="24"/>
-      <c r="C72" s="21"/>
-      <c r="D72" s="23"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="26"/>
       <c r="E72" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G72" s="2">
         <v>0</v>
@@ -6107,7 +6112,7 @@
       <c r="J72" s="2"/>
       <c r="K72" s="1"/>
       <c r="L72" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.15">
@@ -6120,31 +6125,40 @@
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B76" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B77" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B77" s="25" t="s">
+    <row r="78" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B78" s="21"/>
+      <c r="C78" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C77" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B78" s="25"/>
-      <c r="C78" s="3" t="s">
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B79" s="21"/>
+      <c r="C79" s="3" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B79" s="25"/>
-      <c r="C79" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="C6:C44"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="D10:D14"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="D28:D36"/>
+    <mergeCell ref="D37:D44"/>
     <mergeCell ref="B77:B79"/>
     <mergeCell ref="D20:D27"/>
     <mergeCell ref="F2:I2"/>
@@ -6161,15 +6175,6 @@
     <mergeCell ref="D56:D60"/>
     <mergeCell ref="D61:D70"/>
     <mergeCell ref="D71:D72"/>
-    <mergeCell ref="C6:C44"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="D10:D14"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="D28:D36"/>
-    <mergeCell ref="D37:D44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6179,6 +6184,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="B3:C18"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
@@ -6201,7 +6207,7 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B4" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="11">
         <v>2</v>
@@ -6209,7 +6215,7 @@
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B5" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="11">
         <v>3</v>
@@ -6217,7 +6223,7 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B6" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="11">
         <v>3</v>
@@ -6225,7 +6231,7 @@
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B7" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="11">
         <v>5</v>
@@ -6233,7 +6239,7 @@
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B8" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="11">
         <v>9</v>
@@ -6241,7 +6247,7 @@
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B9" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="11">
         <v>9</v>
@@ -6249,7 +6255,7 @@
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B10" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" s="11">
         <v>1</v>
@@ -6257,7 +6263,7 @@
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B11" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" s="11">
         <v>0</v>
@@ -6265,7 +6271,7 @@
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B12" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="11">
         <v>1</v>
@@ -6273,7 +6279,7 @@
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B13" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C13" s="11">
         <v>5</v>
@@ -6281,7 +6287,7 @@
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B16" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C16" s="15">
         <v>6</v>
@@ -6289,7 +6295,7 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B17" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C17" s="15">
         <v>31</v>
@@ -6297,7 +6303,7 @@
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B18" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C18" s="15">
         <v>7</v>
